--- a/resources/excel/25072024-Magic_Kingdom.xlsx
+++ b/resources/excel/25072024-Magic_Kingdom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F361"/>
+  <dimension ref="A1:F421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11985,6 +11985,1926 @@
         </is>
       </c>
     </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Astro Orbiter</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>The Barnstormer</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Frontierland</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Big Thunder Mountain Railroad</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Buzz Lightyear's Space Ranger Spin</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Dumbo the Flying Elephant</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Enchanted Tales with Belle</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Liberty Square</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Haunted Mansion</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Área não encontrada</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>"it's a small world"</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Adventureland</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Jungle Cruise</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>Mad Tea Party</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Adventureland</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>The Magic Carpets of Aladdin</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>The Many Adventures of Winnie the Pooh</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Meet Ariel at Her Grotto</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Meet Cinderella and a Visiting Princess at Princess Fairytale Hall</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Meet Daring Disney Pals as Circus Stars at Pete's Silly Side Show</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Meet Dashing Disney Pals as Circus Stars at Pete’s Silly Side Show</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Main Street USA</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Meet Mickey at Town Square Theater</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>Meet Princess Tiana and a Visiting Princess at Princess Fairytale Hall</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>Mickey's PhilharMagic</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>Monsters Inc. Laugh Floor</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>Peter Pan's Flight</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>Atração indiponível indefinidamente</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Adventureland</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>Pirates of the Caribbean</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>Prince Charming Regal Carrousel</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>Seven Dwarfs Mine Train</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>Space Mountain</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Frontierland</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>Tiana's Bayou Adventure</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>Tomorrowland Speedway</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>Tomorrowland Transit Authority PeopleMover</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>TRON Lightcycle / Run</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>13:15:02</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>Under the Sea ~ Journey of The Little Mermaid</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>Astro Orbiter</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>The Barnstormer</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Frontierland</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>Big Thunder Mountain Railroad</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>Buzz Lightyear's Space Ranger Spin</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>Dumbo the Flying Elephant</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>Enchanted Tales with Belle</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Liberty Square</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>Haunted Mansion</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Área não encontrada</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>"it's a small world"</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Adventureland</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>Jungle Cruise</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Mad Tea Party</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Adventureland</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>The Magic Carpets of Aladdin</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>The Many Adventures of Winnie the Pooh</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>Meet Ariel at Her Grotto</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>Meet Cinderella and a Visiting Princess at Princess Fairytale Hall</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>Meet Daring Disney Pals as Circus Stars at Pete's Silly Side Show</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>Meet Dashing Disney Pals as Circus Stars at Pete’s Silly Side Show</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Main Street USA</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>Meet Mickey at Town Square Theater</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>Meet Princess Tiana and a Visiting Princess at Princess Fairytale Hall</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>Mickey's PhilharMagic</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>Monsters Inc. Laugh Floor</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>Peter Pan's Flight</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Atração indiponível indefinidamente</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>Adventureland</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>Pirates of the Caribbean</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>Prince Charming Regal Carrousel</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>Seven Dwarfs Mine Train</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>Space Mountain</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Frontierland</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>Tiana's Bayou Adventure</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>Tomorrowland Speedway</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>Tomorrowland Transit Authority PeopleMover</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>TRON Lightcycle / Run</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>13:20:16</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>Under the Sea ~ Journey of The Little Mermaid</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/excel/25072024-Magic_Kingdom.xlsx
+++ b/resources/excel/25072024-Magic_Kingdom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F421"/>
+  <dimension ref="A1:F451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13905,6 +13905,966 @@
         </is>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>Astro Orbiter</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>The Barnstormer</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Frontierland</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>Big Thunder Mountain Railroad</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>Buzz Lightyear's Space Ranger Spin</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>Dumbo the Flying Elephant</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>Enchanted Tales with Belle</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Liberty Square</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>Haunted Mansion</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Área não encontrada</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>"it's a small world"</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Adventureland</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>Jungle Cruise</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>Mad Tea Party</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Adventureland</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>The Magic Carpets of Aladdin</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>The Many Adventures of Winnie the Pooh</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>Meet Ariel at Her Grotto</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>Meet Cinderella and a Visiting Princess at Princess Fairytale Hall</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>Meet Daring Disney Pals as Circus Stars at Pete's Silly Side Show</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>Meet Dashing Disney Pals as Circus Stars at Pete’s Silly Side Show</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Main Street USA</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>Meet Mickey at Town Square Theater</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>Meet Princess Tiana and a Visiting Princess at Princess Fairytale Hall</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>Mickey's PhilharMagic</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>Monsters Inc. Laugh Floor</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>Peter Pan's Flight</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Atração indiponível indefinidamente</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Adventureland</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>Pirates of the Caribbean</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>Prince Charming Regal Carrousel</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Fantasyland</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>Seven Dwarfs Mine Train</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>Space Mountain</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Frontierland</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>Tiana's Bayou Adventure</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>Tomorrowland Speedway</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>Tomorrowland Transit Authority PeopleMover</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>TRON Lightcycle / Run</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>15:16:14</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Magic Kingdom</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Tomorrowland</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>Under the Sea ~ Journey of The Little Mermaid</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
